--- a/descriptives/micro_age_sex_table_pooled_2015_2024.xlsx
+++ b/descriptives/micro_age_sex_table_pooled_2015_2024.xlsx
@@ -580,7 +580,7 @@
         <v>4256.105880645081</v>
       </c>
       <c r="D5" t="n">
-        <v>468.171646870959</v>
+        <v>468.1716468709589</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3780.138751423393</v>
+        <v>3780.138751423392</v>
       </c>
       <c r="D8" t="n">
-        <v>415.8152626565732</v>
+        <v>415.8152626565731</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>4014.505674869455</v>
+        <v>4014.505674869454</v>
       </c>
       <c r="G8" t="n">
-        <v>441.59562423564</v>
+        <v>441.5956242356399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>4087.822881940303</v>
       </c>
       <c r="D11" t="n">
-        <v>449.6605170134333</v>
+        <v>449.6605170134332</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>45825.89956583354</v>
       </c>
       <c r="G16" t="n">
-        <v>5040.848952241689</v>
+        <v>5040.848952241688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3860.086073758048</v>
+        <v>3860.086073758047</v>
       </c>
       <c r="G20" t="n">
         <v>424.6094681133852</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>42636.88408365057</v>
+        <v>42636.88408365056</v>
       </c>
       <c r="G25" t="n">
-        <v>4690.057249201564</v>
+        <v>4690.057249201563</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4392.736277030978</v>
+        <v>4392.736277030977</v>
       </c>
       <c r="D26" t="n">
         <v>483.2009904734076</v>
